--- a/Artigo RBC/Resultados.xlsx
+++ b/Artigo RBC/Resultados.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="108" documentId="8_{8B9AFE8B-A382-4627-BF5B-E2853AC404D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38B4A925-B675-4D16-8BE0-78A0EFAFD4E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6600F738-6756-4B49-922F-8F43F1E0A549}"/>
+    <workbookView xWindow="15060" yWindow="345" windowWidth="13410" windowHeight="11385" xr2:uid="{6600F738-6756-4B49-922F-8F43F1E0A549}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -318,6 +318,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,7 +624,7 @@
   <dimension ref="A3:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G6"/>
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,27 +691,27 @@
         <v>6</v>
       </c>
       <c r="B6" s="8">
-        <f>B5/$B$5</f>
+        <f t="shared" ref="B6:G6" si="0">B5/$B$5</f>
         <v>1</v>
       </c>
       <c r="C6" s="8">
-        <f>C5/$B$5</f>
+        <f t="shared" si="0"/>
         <v>0.59900990099009899</v>
       </c>
       <c r="D6" s="8">
-        <f>D5/$B$5</f>
+        <f t="shared" si="0"/>
         <v>0.14356435643564355</v>
       </c>
       <c r="E6" s="8">
-        <f>E5/$B$5</f>
+        <f t="shared" si="0"/>
         <v>2.9702970297029702E-2</v>
       </c>
       <c r="F6" s="8">
-        <f>F5/$B$5</f>
+        <f t="shared" si="0"/>
         <v>6.4356435643564358E-2</v>
       </c>
       <c r="G6" s="9">
-        <f>G5/$B$5</f>
+        <f t="shared" si="0"/>
         <v>0.16336633663366337</v>
       </c>
     </row>
